--- a/public/imports/1316100365_data_tema_bakat.xlsx
+++ b/public/imports/1316100365_data_tema_bakat.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madmuzz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Videos\aldi\TallentsMapping\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B31CF8-B5A0-4CE7-9A16-51CC42888DC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2650FC6F-A74C-41A6-B909-BA0C34FF9798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -713,10 +716,10 @@
     <t>Memperhatikan Sesuatu Atau Seseorang Dengan Seksama Khususnya Untuk Membuat Suatu Opini</t>
   </si>
   <si>
-    <t>pernyataan</t>
-  </si>
-  <si>
     <t>tema_bakat</t>
+  </si>
+  <si>
+    <t>deskripsi</t>
   </si>
 </sst>
 </file>
@@ -1066,21 +1069,24 @@
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>44</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>46</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>48</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>50</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>52</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>54</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>56</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>58</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>60</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>62</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>64</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>66</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>68</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>70</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>72</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>74</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>76</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>78</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>80</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>82</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>84</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>86</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>88</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>90</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>92</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>94</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>96</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>98</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>100</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>102</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>104</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>106</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>108</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>110</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>112</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>114</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>116</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>118</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>120</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>122</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>124</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>126</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>128</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>130</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>132</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>134</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>136</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>138</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>140</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>142</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>144</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>146</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>148</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>150</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>152</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>154</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>156</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>158</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>160</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>162</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>164</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>166</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>168</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>170</v>
       </c>
@@ -1768,7 +1774,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>172</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>174</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>176</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>178</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>180</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>182</v>
       </c>
@@ -1816,7 +1822,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>184</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>186</v>
       </c>
@@ -1832,7 +1838,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>188</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>190</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>192</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>194</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>196</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>198</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>200</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>202</v>
       </c>
@@ -1896,7 +1902,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>204</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>206</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>208</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>210</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>212</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>214</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>216</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>218</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>220</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>222</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>224</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>226</v>
       </c>
